--- a/public/Program_Plan_Sample.xlsx
+++ b/public/Program_Plan_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/SynologyDrive/UOW_notes/intern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B2D39-0999-6D4B-A15A-0DC50A542006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FB0225-8315-0944-A58F-F5C2328C257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2300" windowWidth="28800" windowHeight="17500" xr2:uid="{642D6088-6331-C04C-866A-7219145EDF8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="459">
   <si>
     <t>AScISD</t>
   </si>
@@ -1501,6 +1501,9 @@
   <si>
     <t>Language</t>
   </si>
+  <si>
+    <t>CGE</t>
+  </si>
 </sst>
 </file>
 
@@ -1913,7 +1916,7 @@
   <dimension ref="A1:CV501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18960,7 +18963,9 @@
         <v>3</v>
       </c>
       <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
+      <c r="E154" s="7" t="s">
+        <v>458</v>
+      </c>
       <c r="F154" s="7"/>
       <c r="G154" s="8"/>
       <c r="H154" s="7"/>
@@ -19192,7 +19197,9 @@
       <c r="V156" s="7"/>
       <c r="W156" s="8"/>
       <c r="X156" s="7"/>
-      <c r="Y156" s="7"/>
+      <c r="Y156" s="7" t="s">
+        <v>458</v>
+      </c>
       <c r="Z156" s="7"/>
       <c r="AA156" s="8"/>
       <c r="AB156" s="7"/>
